--- a/Documents/미팅 제출자료.xlsx
+++ b/Documents/미팅 제출자료.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Im Yongsik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Im Yongsik\Documents\GitHub\Cookie\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121868E5-9A12-4EA0-8953-E2165CB35281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44625567-5B84-4A8D-BDDA-0675DCA514B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3919095D-52DB-47BF-AF80-6B9CCE901A45}"/>
   </bookViews>
   <sheets>
     <sheet name="연구진행도" sheetId="1" r:id="rId1"/>
     <sheet name="향후연구계획" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">연구진행도!$C$2:$O$26</definedName>
@@ -378,7 +377,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="mm\/dd"/>
+    <numFmt numFmtId="176" formatCode="mm\/dd"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -868,73 +867,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -943,22 +909,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -971,36 +1000,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,80 +1336,80 @@
   <sheetData>
     <row r="1" spans="3:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="15"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
     </row>
     <row r="5" spans="3:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="26" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="2"/>
@@ -1423,47 +1422,47 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="39"/>
-      <c r="D7" s="46"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="43"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="40"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="44"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2"/>
@@ -1476,13 +1475,13 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1493,30 +1492,30 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="26"/>
+      <c r="O10" s="15"/>
     </row>
     <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="26"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2"/>
@@ -1529,13 +1528,13 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1546,30 +1545,30 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="26"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="26"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2"/>
@@ -1582,13 +1581,13 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="26" t="s">
+      <c r="O15" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1599,30 +1598,30 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="26"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="26"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2"/>
@@ -1634,48 +1633,48 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="26" t="s">
+      <c r="N18" s="3"/>
+      <c r="O18" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="26"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="26"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="2"/>
@@ -1688,13 +1687,13 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1702,33 +1701,33 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="26"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="26"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="2"/>
@@ -1741,45 +1740,59 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="26" t="s">
+      <c r="O24" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="26"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="3:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="8" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="27"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="3:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="O24:O26"/>
     <mergeCell ref="C2:O4"/>
     <mergeCell ref="C6:C8"/>
@@ -1796,20 +1809,6 @@
     <mergeCell ref="E17:N17"/>
     <mergeCell ref="E20:N20"/>
     <mergeCell ref="E23:N23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1826,7 +1825,7 @@
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1838,132 +1837,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="30">
+      <c r="B17" s="10">
         <v>44135</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1976,17 +1975,4 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630DC116-1BA3-4DC2-B241-52C2C8CDF2C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>